--- a/report/reliability/comb/Faculdade de Nutrição - FANUT-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Nutrição - FANUT-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1016,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2227,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3395,6 +3395,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3423,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3438,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3454,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3468,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3484,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3513,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3554,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3569,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3585,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3599,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3615,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,19 +3644,19 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3683,14 +3684,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3699,6 +3699,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3714,14 +3715,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3729,6 +3729,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3744,20 +3745,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3773,14 +3774,13 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4122,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7675839701563174</v>
+        <v>0.718773926396795</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7759218968077998</v>
+        <v>0.7509869542369995</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8838491211376239</v>
+        <v>0.8765182870396084</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.22394038734340205</v>
+        <v>0.200844646255361</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.462729672172662</v>
+        <v>3.0158538559130563</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.0353427018696147</v>
+        <v>0.04108499131534492</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5053763440860215</v>
+        <v>1.9435483870967742</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6430141192464262</v>
+        <v>0.5530658525954689</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.18176938253499936</v>
+        <v>0.1477653288792365</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7441251963203951</v>
+        <v>0.6916000975669249</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7496853058100378</v>
+        <v>0.7313177233424724</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.864110827276402</v>
+        <v>0.8673163726756165</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.21400338559692617</v>
+        <v>0.1983598804837044</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.9949712230681356</v>
+        <v>2.7218681203696837</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03916350668929178</v>
+        <v>0.045268102777295524</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04486299979655095</v>
+        <v>0.07174759134905086</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.17544771979646517</v>
+        <v>0.1424508113237519</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7400485325763473</v>
+        <v>0.6874589225253934</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7455426473668224</v>
+        <v>0.728086893349045</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8635946122613359</v>
+        <v>0.8670832386002355</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.21033352583276016</v>
+        <v>0.1957680114867163</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.9299316355050933</v>
+        <v>2.6776454519482353</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03970192097914327</v>
+        <v>0.04579013132224743</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04703325314925033</v>
+        <v>0.0742240074717563</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.17544771979646517</v>
+        <v>0.15307984643472106</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7391508023987896</v>
+        <v>0.7167761619369786</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7472590926584608</v>
+        <v>0.731037884610161</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8537700079331056</v>
+        <v>0.8539947589273637</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2118436158398072</v>
+        <v>0.1981335899046868</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.9566210730131566</v>
+        <v>2.7179957428226653</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.039732581502028796</v>
+        <v>0.04202818110607602</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04374791821083115</v>
+        <v>0.050588305332285435</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17544771979646517</v>
+        <v>0.15904410797708557</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7413848456377741</v>
+        <v>0.7112030131566046</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7502961377220828</v>
+        <v>0.7301147875316559</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8541775011766608</v>
+        <v>0.8546562996783654</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.21455185906005408</v>
+        <v>0.19738955841446115</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.004743822852898</v>
+        <v>2.705278962319189</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.039332778950161636</v>
+        <v>0.04148375323821347</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04492298677628229</v>
+        <v>0.0509097919224744</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1798116176107832</v>
+        <v>0.15988918604987856</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7680815018315019</v>
+        <v>0.7125965662728049</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.777962859160401</v>
+        <v>0.7293499411393854</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8498389557543065</v>
+        <v>0.8523690147450611</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2415755080709434</v>
+        <v>0.19677588704057436</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.5037510220977217</v>
+        <v>2.6948079901028295</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03531260474601182</v>
+        <v>0.0410353827352514</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03501863434320388</v>
+        <v>0.05069934705753651</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.21098769728879685</v>
+        <v>0.15904410797708557</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7697787129315813</v>
+        <v>0.7175809017991452</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7775605184570951</v>
+        <v>0.7480567360465404</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8491764532970725</v>
+        <v>0.8678390931596943</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2411492893911102</v>
+        <v>0.21255037747944003</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.4956047958020284</v>
+        <v>2.9691475942167904</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03492070548823633</v>
+        <v>0.04220660732912663</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03508435960773501</v>
+        <v>0.06791898666878661</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.21098769728879685</v>
+        <v>0.15988918604987856</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7467405826683985</v>
+        <v>0.6895799032722782</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7614122558757497</v>
+        <v>0.7326887703067949</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8667361286510316</v>
+        <v>0.8529698341831944</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2248788590517727</v>
+        <v>0.1994735556870312</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.19133012749903</v>
+        <v>2.7409576887125406</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.038894678079859704</v>
+        <v>0.04554413035202854</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04154319030918192</v>
+        <v>0.06169780323437805</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.17092571907554904</v>
+        <v>0.1356513397015062</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7451493808639935</v>
+        <v>0.687081934690885</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7543972072161119</v>
+        <v>0.7249464438835433</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8655618053269989</v>
+        <v>0.862612686609511</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.21828446498921983</v>
+        <v>0.1932914465310235</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.071614938352614</v>
+        <v>2.635655594202183</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.039283726782539316</v>
+        <v>0.046044111862354874</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04498511996549579</v>
+        <v>0.0680918771883877</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.17544771979646517</v>
+        <v>0.13171601198675814</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7752232494320355</v>
+        <v>0.7253048398808183</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7775613967028514</v>
+        <v>0.7516786515130232</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.893648351826317</v>
+        <v>0.8881817477269656</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24115021860030714</v>
+        <v>0.21580033919199382</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.4956225456250127</v>
+        <v>3.0270399870691924</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.034158184720848424</v>
+        <v>0.039708984207369374</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05068633996687825</v>
+        <v>0.07636696727735559</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.21898127963436978</v>
+        <v>0.15307984643472106</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7629805026384046</v>
+        <v>0.715694487632078</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.773240197646657</v>
+        <v>0.754760734122253</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8909799348000881</v>
+        <v>0.8882306259952235</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2366387150676845</v>
+        <v>0.21861960927396987</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.4099526883595237</v>
+        <v>3.0776504383213426</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03634600262759473</v>
+        <v>0.04173240217796006</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04974949877930877</v>
+        <v>0.07424261461598616</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.18372714745921548</v>
+        <v>0.15988918604987856</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7393863421595666</v>
+        <v>0.669447527141134</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.750916212829899</v>
+        <v>0.7241574940895208</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8531635533951092</v>
+        <v>0.8429668103031096</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.21511059534368845</v>
+        <v>0.19267578379280106</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.0147133274358513</v>
+        <v>2.6252570890018503</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.039629022483658426</v>
+        <v>0.04868039764105466</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.045151849578542146</v>
+        <v>0.06862719654230257</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.17092571907554904</v>
+        <v>0.1356513397015062</v>
       </c>
     </row>
     <row r="22">
@@ -4515,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7423779291566014</v>
+        <v>0.6721123695734443</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7538318110437199</v>
+        <v>0.7223794625157368</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8573005461876713</v>
+        <v>0.84745722738749</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2177646112765509</v>
+        <v>0.19129771577792978</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.062263301525126</v>
+        <v>2.6020389884040345</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03910643412261152</v>
+        <v>0.04806532834589771</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04570722760822199</v>
+        <v>0.07046286429453735</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1798116176107832</v>
+        <v>0.11953944105243924</v>
       </c>
     </row>
     <row r="23">
@@ -4586,16 +4586,16 @@
         <v>93.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5994983897712023</v>
+        <v>0.5503741573543601</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.6220035334847998</v>
+        <v>0.5391687169355063</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.588722358189566</v>
+        <v>0.47642331100061375</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.5175102479383838</v>
+        <v>0.44610477363724604</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.6559139784946235</v>
@@ -4612,16 +4612,16 @@
         <v>93.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6299431326664938</v>
+        <v>0.577305519688967</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6533128584211763</v>
+        <v>0.5621397515821993</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6176020571261484</v>
+        <v>0.49688039119368144</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5445945935944408</v>
+        <v>0.46699645363932935</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.075268817204301</v>
@@ -4638,22 +4638,22 @@
         <v>93.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6267430438894805</v>
+        <v>0.3711224385892642</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6404295599432694</v>
+        <v>0.5411742691979373</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6268204516720878</v>
+        <v>0.5734562130201692</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5269398975248343</v>
+        <v>0.34110505238124883</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.6559139784946235</v>
+        <v>0.053763440860215055</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1082165819549306</v>
+        <v>0.22677279367959727</v>
       </c>
     </row>
     <row r="30">
@@ -4664,22 +4664,22 @@
         <v>93.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6091813423327405</v>
+        <v>0.37979447420812773</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6173242446346566</v>
+        <v>0.5477684192726767</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6016851344690902</v>
+        <v>0.5787180301361904</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.49367715967732817</v>
+        <v>0.26440274077658965</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.075268817204301</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2268425286055766</v>
+        <v>0.8374140386271068</v>
       </c>
     </row>
     <row r="31">
@@ -4690,22 +4690,22 @@
         <v>93.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.3159768581131837</v>
+        <v>0.3877141488263556</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.3867725990077265</v>
+        <v>0.553207222857124</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.40444829906186736</v>
+        <v>0.5868584384296078</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.2136054209264148</v>
+        <v>0.25375036772177445</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.1935483870967742</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>0.8374140386271068</v>
+        <v>0.9682911017788045</v>
       </c>
     </row>
     <row r="32">
@@ -4716,22 +4716,22 @@
         <v>93.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.32245025981864606</v>
+        <v>0.3244726568748467</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.39040887396056145</v>
+        <v>0.41340217606417745</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.408396637831448</v>
+        <v>0.3672471084830789</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.2037125643139517</v>
+        <v>0.29058246993426406</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.22580645161290322</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>0.9682911017788045</v>
+        <v>0.24700165520054568</v>
       </c>
     </row>
     <row r="33">
@@ -4742,16 +4742,16 @@
         <v>93.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.568430112955835</v>
+        <v>0.5705948239701351</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.52921967957312</v>
+        <v>0.5292985145022385</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.4918103596573974</v>
+        <v>0.514759357390471</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.44741446286351677</v>
+        <v>0.42741213974231296</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.946236559139785</v>
@@ -4768,16 +4768,16 @@
         <v>93.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6327031044214354</v>
+        <v>0.6437669164642633</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5854796022216635</v>
+        <v>0.5840888776638462</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.548037568140749</v>
+        <v>0.5468503164533685</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.47248468598543647</v>
+        <v>0.4548534547707249</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.172043010752688</v>
@@ -4794,16 +4794,16 @@
         <v>93.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4218652125415655</v>
+        <v>0.44701306448896627</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.39040094643347545</v>
+        <v>0.384598643483537</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.270070696741248</v>
+        <v>0.25820845173173235</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.24096351502790683</v>
+        <v>0.23703268732903288</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>1.3870967741935485</v>
@@ -4820,16 +4820,16 @@
         <v>93.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.45147221587932584</v>
+        <v>0.4329403118756477</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4288907359981167</v>
+        <v>0.35961221446003594</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3217073208549733</v>
+        <v>0.23542769457256135</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3051858708393439</v>
+        <v>0.2577873889520959</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.6129032258064515</v>
@@ -4846,16 +4846,16 @@
         <v>93.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6270168235025325</v>
+        <v>0.6765848721259409</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6125573987652673</v>
+        <v>0.5895453301723723</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.604594980254491</v>
+        <v>0.5845929477863167</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5047451347738499</v>
+        <v>0.5437941263166569</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.139784946236559</v>
@@ -4872,16 +4872,16 @@
         <v>93.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6030333947317169</v>
+        <v>0.6629540562728827</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5899147223230531</v>
+        <v>0.6017587746604592</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5768702074659846</v>
+        <v>0.5905715559483338</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.48350617321964273</v>
+        <v>0.5350403913347929</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>1.924731182795699</v>
@@ -4986,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.03225806451612903</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.03225806451612903</v>
+        <v>0.053763440860215055</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.021505376344086023</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.25806451612903225</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4731182795698925</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.1827956989247312</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5012,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="112">
         <v>0.03225806451612903</v>
       </c>
-      <c r="C46" t="n" s="110">
+      <c r="F46" t="n" s="113">
         <v>0.010752688172043012</v>
       </c>
-      <c r="D46" t="n" s="111">
+      <c r="G46" t="n" s="114">
         <v>0.010752688172043012</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.10752688172043011</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.5483870967741935</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,13 +5047,13 @@
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.03225806451612903</v>
+        <v>0.010752688172043012</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.010752688172043012</v>
+        <v>0.021505376344086023</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.010752688172043012</v>
+        <v>0.021505376344086023</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5064,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.946236559139785</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.010752688172043012</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.021505376344086023</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.021505376344086023</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5317,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8070726266214987</v>
+        <v>0.8782815545110626</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8093536750003155</v>
+        <v>0.9928112937326987</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8254588522053818</v>
+        <v>0.9895599367267944</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5148760148279949</v>
+        <v>0.9787395514377465</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.245314851999668</v>
+        <v>138.107088649404</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03232376448646758</v>
+        <v>0.0023553581642927084</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.8655913978494625</v>
+        <v>0.15770609318996415</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8410002615488289</v>
+        <v>0.6731413807492169</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5332726522773108</v>
+        <v>0.9776983067682952</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7865704167801688</v>
+        <v>0.9834710743801653</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7828805142692428</v>
+        <v>0.9887234098571145</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7410744931209865</v>
+        <v>0.9776983067682951</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5458508169468259</v>
+        <v>0.9776983067682952</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.6057588826461564</v>
+        <v>87.67928933560673</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03699889700218387</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.026924371270933476</v>
-      </c>
+        <v>0.002816349225813137</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5160817156608365</v>
+        <v>0.9776983067682952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7779957886676876</v>
+        <v>0.6079947359763118</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7778060215113607</v>
+        <v>0.9917503699445775</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.75329898209391</v>
+        <v>0.9836357389886291</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5385021508619489</v>
+        <v>0.9836357389886292</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.5005720083054785</v>
+        <v>120.21755682155708</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.038421963335811646</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.0363071077660105</v>
-      </c>
+        <v>0.0072301807692102945</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5504635888937851</v>
+        <v>0.9836357389886292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7139128461189288</v>
+        <v>0.6594504579517069</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7287446564601577</v>
+        <v>0.9872826030772275</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.6604549763574379</v>
+        <v>0.974884608556315</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.47244058829818103</v>
+        <v>0.9748846085563152</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>2.686563320560425</v>
+        <v>77.63244389339968</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.0509743446169769</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0131705270931948</v>
-      </c>
+        <v>0.009116297189171459</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5160817156608365</v>
+        <v>0.9748846085563152</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7432803727153268</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7520273821778769</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6807748919983743</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5027105032050239</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.0327033233859915</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.046429225510155596</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.008133827032694212</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5504635888937851</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5478,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>93.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9882027963473394</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9932374604976005</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9888383908291358</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9850557995513071</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.053763440860215055</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.22677279367959727</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>93.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7320359793619023</v>
+        <v>0.9929503532926974</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7684680594428954</v>
+        <v>0.991244139713008</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.670726331061463</v>
+        <v>0.9833817022417216</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.5656153711001323</v>
+        <v>0.9796322508635888</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.6559139784946235</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8907083607018724</v>
+        <v>0.8374140386271068</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>93.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.755757459211094</v>
+        <v>0.9953784209318257</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7753782117279233</v>
+        <v>0.9941820781234325</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.6677418091719861</v>
+        <v>0.9908540709920116</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.5810806596089545</v>
+        <v>0.9831126641634258</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.075268817204301</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.969497394886122</v>
+        <v>0.9682911017788045</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>93.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8536819504302765</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8374977109989493</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7997021465915404</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7094394220097723</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.6559139784946235</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1082165819549306</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.053763440860215055</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>93.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8421627665321058</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8090340797432615</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7604402388506318</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6629321231208178</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.075268817204301</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2268425286055766</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="C27" t="n" s="225">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.043010752688172046</v>
-      </c>
       <c r="D27" t="n" s="226">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.021505376344086023</v>
       </c>
-      <c r="E27" t="n" s="227">
-        <v>0.3010752688172043</v>
-      </c>
       <c r="F27" t="n" s="228">
-        <v>0.5053763440860215</v>
+        <v>0.021505376344086023</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.010752688172043012</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.26881720430107525</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.24731182795698925</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.44086021505376344</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.021505376344086023</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4731182795698925</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.1827956989247312</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.010752688172043012</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.010752688172043012</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.10752688172043011</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5483870967741935</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,7 +5715,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
+      <c r="A1" t="s" s="231">
         <v>45</v>
       </c>
     </row>
@@ -5829,66 +5730,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.7982945227943588</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8236614801804465</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.7001908602863685</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.7001908602863685</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>4.6709107064258895</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.0379083914098687</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>3.0591397849462365</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.334837277099623</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.7001908602863685</v>
+      <c r="A6" t="n" s="260">
+        <v>0.6842089858041857</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.826738977323084</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.7781487044028779</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.6139810188594707</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>4.771638563306442</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.02896001455330665</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.3512544802867383</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.9419960196099498</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.6428224359425709</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5803,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="287">
+        <v>0.7982945227943588</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.8236614801804465</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.7001908602863685</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.7001908602863685</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>4.6709107064258895</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.0379083914098687</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.7001908602863685</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.7001908602863685</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7001908602863685</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.49026724082856465</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.7001908602863685</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7001908602863685</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.7001908602863685</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="B12" t="n" s="287">
+        <v>0.251313360783757</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.6657146632850204</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.4989297603494727</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.4989297603494727</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>1.9914563702583992</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.03916739440694369</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.49892976034947256</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.49026724082856465</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.7001908602863685</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.49026724082856465</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.7001908602863685</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="287">
+        <v>0.4024479804161567</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.7825829765634422</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.6428224359425712</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.6428224359425709</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>3.599455848459811</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.03844169329029113</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.6428224359425709</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +5921,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="298">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="313">
+        <v>93.0</v>
+      </c>
+      <c r="C18" t="n" s="314">
+        <v>0.6590435711087173</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8284278685548719</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.6838826086937406</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6051103137123074</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.24700165520054568</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B19" t="n" s="313">
         <v>93.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8935682059443438</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9220061985383744</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.771510888165207</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7001908602863685</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C19" t="n" s="314">
+        <v>0.9003274092327433</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9062754852550613</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.8541479087659732</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.7352500730244774</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.946236559139785</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.2101526259997615</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
+      <c r="B20" t="n" s="313">
         <v>93.0</v>
       </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9461826129356203</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9220061985383744</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7715108881652071</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.7001908602863683</v>
-      </c>
-      <c r="G18" t="n" s="319">
+      <c r="C20" t="n" s="314">
+        <v>0.9374548182316362</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8506179247078496</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.7425521535542902</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.7023250236315234</v>
+      </c>
+      <c r="G20" t="n" s="318">
         <v>3.172043010752688</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="319">
         <v>1.678661837103399</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="323">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="337">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="337">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="337">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="337">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="337">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="337">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.06451612903225806</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.10752688172043011</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.021505376344086023</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.45161290322580644</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.021505376344086023</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="338">
         <v>0.06451612903225806</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.12903225806451613</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.20430107526881722</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.11827956989247312</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.13978494623655913</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.34408602150537637</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,7 +6175,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
+      <c r="A1" t="s" s="346">
         <v>46</v>
       </c>
     </row>
@@ -6202,66 +6190,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8997522836352376</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.9004930926274037</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.818997212831741</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.8189972128317411</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>9.049553607927674</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.020696406777620687</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.032258064516129</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.2287463822161417</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.8189972128317412</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7154612386314423</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.7171107854672465</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.5589810697164744</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.5589810697164745</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>2.534952725757657</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.05870394537145675</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>3.8655913978494625</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8213846506193215</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.5589810697164745</v>
       </c>
     </row>
     <row r="7">
@@ -6275,81 +6263,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.8189972128317411</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.8189972128317411</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.67075643462616</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.8189972128317411</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8189972128317411</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.8189972128317411</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.5589810697164744</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.5589810697164744</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.31245983630137386</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.5589810697164744</v>
+      </c>
+      <c r="F11" s="406"/>
+      <c r="G11" s="407"/>
+      <c r="H11" t="n" s="408">
+        <v>0.5589810697164744</v>
+      </c>
+      <c r="I11" t="n" s="409">
+        <v>0.5589810697164744</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.67075643462616</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.8189972128317411</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.67075643462616</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.8189972128317411</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.31245983630137386</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.5589810697164744</v>
+      </c>
+      <c r="D12" s="404"/>
+      <c r="E12" s="405"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="407"/>
+      <c r="H12" t="n" s="408">
+        <v>0.31245983630137386</v>
+      </c>
+      <c r="I12" t="n" s="409">
+        <v>0.5589810697164744</v>
       </c>
     </row>
     <row r="13">
@@ -6363,84 +6351,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
+      <c r="A15" t="s" s="413">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="B16" t="s" s="427">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+      <c r="C16" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="D16" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="E16" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="F16" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="G16" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H16" t="s" s="427">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+      <c r="A17" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="428">
         <v>93.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9562366428352806</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9536763635614917</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8630624680340065</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8189972128317411</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.139784946236559</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3236264237959747</v>
+      <c r="C17" t="n" s="429">
+        <v>0.8720877913304362</v>
+      </c>
+      <c r="D17" t="n" s="430">
+        <v>0.8828876116801262</v>
+      </c>
+      <c r="E17" t="n" s="431">
+        <v>0.6600912459720429</v>
+      </c>
+      <c r="F17" t="n" s="432">
+        <v>0.5589810697164745</v>
+      </c>
+      <c r="G17" t="n" s="433">
+        <v>3.6559139784946235</v>
+      </c>
+      <c r="H17" t="n" s="434">
+        <v>0.8907083607018724</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="A18" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>93.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9510450790756094</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9536763635614917</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8630624680340065</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8189972128317413</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.924731182795699</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.2531400485578907</v>
+      <c r="C18" t="n" s="429">
+        <v>0.8932395474216965</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.8828876116801262</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.6600912459720429</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.5589810697164744</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>4.075268817204301</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.969497394886122</v>
       </c>
     </row>
     <row r="19">
@@ -6454,74 +6442,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="439">
+      <c r="A21" t="s" s="438">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="453">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="453">
+      <c r="B22" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C22" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D22" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E22" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F22" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="452">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.17204301075268819</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.10752688172043011</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3118279569892473</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1827956989247312</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="A23" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="453">
+        <v>0.043010752688172046</v>
+      </c>
+      <c r="C23" t="n" s="454">
+        <v>0.021505376344086023</v>
+      </c>
+      <c r="D23" t="n" s="455">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="E23" t="n" s="456">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="F23" t="n" s="457">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="G23" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="D24" t="n" s="456">
+      <c r="A24" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="453">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="C24" t="n" s="454">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D24" t="n" s="455">
+        <v>0.26881720430107525</v>
+      </c>
+      <c r="E24" t="n" s="456">
+        <v>0.24731182795698925</v>
+      </c>
+      <c r="F24" t="n" s="457">
         <v>0.44086021505376344</v>
       </c>
-      <c r="E24" t="n" s="457">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.13978494623655913</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6551,7 +6539,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
+      <c r="A1" t="s" s="460">
         <v>47</v>
       </c>
     </row>
@@ -6566,66 +6554,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9834710743801653</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9887234098571145</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9776983067682951</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9776983067682952</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>87.67928933560673</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002816349225813137</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.20967741935483872</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>0.8978312657549752</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9776983067682952</v>
+      <c r="A6" t="n" s="489">
+        <v>0.17106549364613866</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.17340691416768217</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.09493461653429291</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.09493461653429303</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>0.20978510120620497</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.1693520740706548</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.037346112212187</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.09493461653429304</v>
       </c>
     </row>
     <row r="7">
@@ -6639,81 +6627,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9776983067682952</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9776983067682952</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9558939790575911</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9776983067682952</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9776983067682952</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9776983067682952</v>
+      <c r="A11" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.09493461653429305</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.09493461653429305</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.009012581416513177</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.09493461653429305</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.09493461653429305</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.09493461653429305</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9558939790575911</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9776983067682952</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9558939790575911</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9776983067682952</v>
+      <c r="A12" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.009012581416513177</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.09493461653429305</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.009012581416513177</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.09493461653429305</v>
       </c>
     </row>
     <row r="13">
@@ -6727,84 +6715,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
+      <c r="A15" t="s" s="527">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="F16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="537">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>93.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9935667632351912</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9944089467538733</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9832579228833821</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9776983067682953</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>0.8374140386271068</v>
+      <c r="C17" t="n" s="543">
+        <v>0.7902306793696036</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.7399103379918046</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.2279771895944923</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.09493461653429294</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>1.3870967741935485</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.5182388113729164</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>93.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9951922246246547</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9944089467538733</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9832579228833822</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9776983067682954</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>0.9682911017788045</v>
+      <c r="C18" t="n" s="543">
+        <v>0.6850619904637218</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.7399103379918046</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.22797718959449234</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.09493461653429305</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>2.6129032258064515</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.2771593654985995</v>
       </c>
     </row>
     <row r="19">
@@ -6818,65 +6806,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
+      <c r="A21" t="s" s="552">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="567">
+      <c r="C22" t="s" s="566">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s" s="567">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.946236559139785</v>
-      </c>
-      <c r="C23" t="n" s="569">
+      <c r="A23" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.053763440860215055</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.27956989247311825</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.08602150537634409</v>
+      </c>
+      <c r="G23" t="n" s="572">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.15053763440860216</v>
+      </c>
+      <c r="C24" t="n" s="568">
         <v>0.03225806451612903</v>
       </c>
-      <c r="D23" t="n" s="570">
-        <v>0.010752688172043012</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.010752688172043012</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.946236559139785</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.010752688172043012</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.021505376344086023</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.021505376344086023</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="D24" t="n" s="569">
+        <v>0.07526881720430108</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.5376344086021505</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.20430107526881722</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6956,31 +6953,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="603">
-        <v>0.17106549364613866</v>
+        <v>0.8997522836352376</v>
       </c>
       <c r="B6" t="n" s="604">
-        <v>0.17340691416768217</v>
+        <v>0.9004930926274037</v>
       </c>
       <c r="C6" t="n" s="605">
-        <v>0.09493461653429291</v>
+        <v>0.818997212831741</v>
       </c>
       <c r="D6" t="n" s="606">
-        <v>0.09493461653429303</v>
+        <v>0.8189972128317411</v>
       </c>
       <c r="E6" t="n" s="607">
-        <v>0.20978510120620497</v>
+        <v>9.049553607927674</v>
       </c>
       <c r="F6" t="n" s="608">
-        <v>0.1693520740706548</v>
+        <v>0.020696406777620687</v>
       </c>
       <c r="G6" t="n" s="609">
-        <v>2.0</v>
+        <v>2.032258064516129</v>
       </c>
       <c r="H6" t="n" s="610">
-        <v>1.037346112212187</v>
+        <v>1.2287463822161417</v>
       </c>
       <c r="I6" t="n" s="611">
-        <v>0.09493461653429304</v>
+        <v>0.8189972128317412</v>
       </c>
     </row>
     <row r="7">
@@ -7027,48 +7024,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="625">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="630">
-        <v>0.09493461653429305</v>
+        <v>0.8189972128317411</v>
       </c>
       <c r="C11" t="n" s="631">
-        <v>0.09493461653429305</v>
+        <v>0.8189972128317411</v>
       </c>
       <c r="D11" t="n" s="632">
-        <v>0.009012581416513177</v>
+        <v>0.67075643462616</v>
       </c>
       <c r="E11" t="n" s="633">
-        <v>0.09493461653429305</v>
+        <v>0.8189972128317411</v>
       </c>
       <c r="F11" s="634"/>
       <c r="G11" s="635"/>
       <c r="H11" t="n" s="636">
-        <v>0.09493461653429305</v>
+        <v>0.8189972128317411</v>
       </c>
       <c r="I11" t="n" s="637">
-        <v>0.09493461653429305</v>
+        <v>0.8189972128317411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="625">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="630">
-        <v>0.009012581416513177</v>
+        <v>0.67075643462616</v>
       </c>
       <c r="C12" t="n" s="631">
-        <v>0.09493461653429305</v>
+        <v>0.8189972128317411</v>
       </c>
       <c r="D12" s="632"/>
       <c r="E12" s="633"/>
       <c r="F12" s="634"/>
       <c r="G12" s="635"/>
       <c r="H12" t="n" s="636">
-        <v>0.009012581416513177</v>
+        <v>0.67075643462616</v>
       </c>
       <c r="I12" t="n" s="637">
-        <v>0.09493461653429305</v>
+        <v>0.8189972128317411</v>
       </c>
     </row>
     <row r="13">
@@ -7112,54 +7109,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="651">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="656">
         <v>93.0</v>
       </c>
       <c r="C17" t="n" s="657">
-        <v>0.7902306793696036</v>
+        <v>0.9562366428352806</v>
       </c>
       <c r="D17" t="n" s="658">
-        <v>0.7399103379918046</v>
+        <v>0.9536763635614917</v>
       </c>
       <c r="E17" t="n" s="659">
-        <v>0.2279771895944923</v>
+        <v>0.8630624680340065</v>
       </c>
       <c r="F17" t="n" s="660">
-        <v>0.09493461653429294</v>
+        <v>0.8189972128317411</v>
       </c>
       <c r="G17" t="n" s="661">
-        <v>1.3870967741935485</v>
+        <v>2.139784946236559</v>
       </c>
       <c r="H17" t="n" s="662">
-        <v>1.5182388113729164</v>
+        <v>1.3236264237959747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="651">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="656">
         <v>93.0</v>
       </c>
       <c r="C18" t="n" s="657">
-        <v>0.6850619904637218</v>
+        <v>0.9510450790756094</v>
       </c>
       <c r="D18" t="n" s="658">
-        <v>0.7399103379918046</v>
+        <v>0.9536763635614917</v>
       </c>
       <c r="E18" t="n" s="659">
-        <v>0.22797718959449234</v>
+        <v>0.8630624680340065</v>
       </c>
       <c r="F18" t="n" s="660">
-        <v>0.09493461653429305</v>
+        <v>0.8189972128317413</v>
       </c>
       <c r="G18" t="n" s="661">
-        <v>2.6129032258064515</v>
+        <v>1.924731182795699</v>
       </c>
       <c r="H18" t="n" s="662">
-        <v>1.2771593654985995</v>
+        <v>1.2531400485578907</v>
       </c>
     </row>
     <row r="19">
@@ -7200,22 +7197,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="676">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="681">
-        <v>0.4838709677419355</v>
+        <v>0.17204301075268819</v>
       </c>
       <c r="C23" t="n" s="682">
-        <v>0.0967741935483871</v>
+        <v>0.10752688172043011</v>
       </c>
       <c r="D23" t="n" s="683">
-        <v>0.053763440860215055</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="E23" t="n" s="684">
-        <v>0.27956989247311825</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="F23" t="n" s="685">
-        <v>0.08602150537634409</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="G23" t="n" s="686">
         <v>0.0</v>
@@ -7223,22 +7220,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="676">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="681">
-        <v>0.15053763440860216</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="C24" t="n" s="682">
-        <v>0.03225806451612903</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="D24" t="n" s="683">
-        <v>0.07526881720430108</v>
+        <v>0.44086021505376344</v>
       </c>
       <c r="E24" t="n" s="684">
-        <v>0.5376344086021505</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F24" t="n" s="685">
-        <v>0.20430107526881722</v>
+        <v>0.13978494623655913</v>
       </c>
       <c r="G24" t="n" s="686">
         <v>0.0</v>
@@ -7320,31 +7317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="717">
-        <v>0.7367088541277831</v>
+        <v>0.6873616691637157</v>
       </c>
       <c r="B6" t="n" s="718">
-        <v>0.7478630215371935</v>
+        <v>0.7392209220424315</v>
       </c>
       <c r="C6" t="n" s="719">
-        <v>0.8681640276863825</v>
+        <v>0.8562591484104305</v>
       </c>
       <c r="D6" t="n" s="720">
-        <v>0.2287579581750316</v>
+        <v>0.2395221009509159</v>
       </c>
       <c r="E6" t="n" s="721">
-        <v>2.9660981348180666</v>
+        <v>2.8346634547220497</v>
       </c>
       <c r="F6" t="n" s="722">
-        <v>0.04101335885105953</v>
+        <v>0.04726182852912744</v>
       </c>
       <c r="G6" t="n" s="723">
-        <v>2.3946236559139784</v>
+        <v>1.8076463560334528</v>
       </c>
       <c r="H6" t="n" s="724">
-        <v>0.6297628248168287</v>
+        <v>0.5822430079231745</v>
       </c>
       <c r="I6" t="n" s="725">
-        <v>0.1664437192599136</v>
+        <v>0.15946664701348207</v>
       </c>
     </row>
     <row r="7">
@@ -7391,28 +7388,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="739">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="744">
-        <v>0.7129030774889651</v>
+        <v>0.680924109840886</v>
       </c>
       <c r="C11" t="n" s="745">
-        <v>0.7232520884031541</v>
+        <v>0.6926762510417035</v>
       </c>
       <c r="D11" t="n" s="746">
-        <v>0.8462163128386619</v>
+        <v>0.8127108338605324</v>
       </c>
       <c r="E11" t="n" s="747">
-        <v>0.2250329334409017</v>
+        <v>0.2198088633877043</v>
       </c>
       <c r="F11" t="n" s="748">
-        <v>2.613396734341959</v>
+        <v>2.2538975701994937</v>
       </c>
       <c r="G11" t="n" s="749">
-        <v>0.04513731829116394</v>
+        <v>0.04957424502420672</v>
       </c>
       <c r="H11" t="n" s="750">
-        <v>0.047728018884328434</v>
+        <v>0.051553437404505735</v>
       </c>
       <c r="I11" t="n" s="751">
         <v>0.1627439136184996</v>
@@ -7420,263 +7417,239 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="739">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="744">
-        <v>0.702351668857882</v>
+        <v>0.6589160685596411</v>
       </c>
       <c r="C12" t="n" s="745">
-        <v>0.7115031628916596</v>
+        <v>0.6902100423712929</v>
       </c>
       <c r="D12" t="n" s="746">
-        <v>0.8427217131464901</v>
+        <v>0.8136214341078762</v>
       </c>
       <c r="E12" t="n" s="747">
-        <v>0.2150872446411357</v>
+        <v>0.21783290894526072</v>
       </c>
       <c r="F12" t="n" s="748">
-        <v>2.4662425072773537</v>
+        <v>2.227993598160891</v>
       </c>
       <c r="G12" t="n" s="749">
-        <v>0.04662237539949685</v>
+        <v>0.05055977476515788</v>
       </c>
       <c r="H12" t="n" s="750">
-        <v>0.04997083334208461</v>
+        <v>0.05263936289232375</v>
       </c>
       <c r="I12" t="n" s="751">
-        <v>0.1627439136184996</v>
+        <v>0.1631664526548961</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="739">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="744">
-        <v>0.7016807636276664</v>
+        <v>0.6595324085077768</v>
       </c>
       <c r="C13" t="n" s="745">
-        <v>0.713956422008803</v>
+        <v>0.6895229048352108</v>
       </c>
       <c r="D13" t="n" s="746">
-        <v>0.8272899031469629</v>
+        <v>0.80958292988817</v>
       </c>
       <c r="E13" t="n" s="747">
-        <v>0.21711701028695232</v>
+        <v>0.21728619605067273</v>
       </c>
       <c r="F13" t="n" s="748">
-        <v>2.495970813338013</v>
+        <v>2.220849510554842</v>
       </c>
       <c r="G13" t="n" s="749">
-        <v>0.04645199954473094</v>
+        <v>0.050110116646323526</v>
       </c>
       <c r="H13" t="n" s="750">
-        <v>0.04467759625055285</v>
+        <v>0.051902252933274426</v>
       </c>
       <c r="I13" t="n" s="751">
-        <v>0.1627439136184996</v>
+        <v>0.15946664701348207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="739">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="744">
-        <v>0.7047269534097687</v>
+        <v>0.6711242879026739</v>
       </c>
       <c r="C14" t="n" s="745">
-        <v>0.7170549644468972</v>
+        <v>0.7396490220635834</v>
       </c>
       <c r="D14" t="n" s="746">
-        <v>0.8291451254719739</v>
+        <v>0.8515424280464663</v>
       </c>
       <c r="E14" t="n" s="747">
-        <v>0.2197155566174175</v>
+        <v>0.2620585761048768</v>
       </c>
       <c r="F14" t="n" s="748">
-        <v>2.534255329997904</v>
+        <v>2.840968864131642</v>
       </c>
       <c r="G14" t="n" s="749">
-        <v>0.04588803932741954</v>
+        <v>0.05020068725483206</v>
       </c>
       <c r="H14" t="n" s="750">
-        <v>0.04615150701151044</v>
+        <v>0.08652777549954858</v>
       </c>
       <c r="I14" t="n" s="751">
-        <v>0.1627439136184996</v>
+        <v>0.1631664526548961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="739">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="744">
-        <v>0.6955442976692717</v>
+        <v>0.6570560174378789</v>
       </c>
       <c r="C15" t="n" s="745">
-        <v>0.7143065764809833</v>
+        <v>0.7237032147075257</v>
       </c>
       <c r="D15" t="n" s="746">
-        <v>0.8247027995333396</v>
+        <v>0.844359787845031</v>
       </c>
       <c r="E15" t="n" s="747">
-        <v>0.21740869696684711</v>
+        <v>0.2466544307148729</v>
       </c>
       <c r="F15" t="n" s="748">
-        <v>2.5002555805539455</v>
+        <v>2.6192965435390394</v>
       </c>
       <c r="G15" t="n" s="749">
-        <v>0.04780860563852279</v>
+        <v>0.051917569148618996</v>
       </c>
       <c r="H15" t="n" s="750">
-        <v>0.04619552483912264</v>
+        <v>0.09168535476855295</v>
       </c>
       <c r="I15" t="n" s="751">
-        <v>0.15227824726213643</v>
+        <v>0.1631664526548961</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="739">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="744">
-        <v>0.6984956530233467</v>
+        <v>0.6970470696170054</v>
       </c>
       <c r="C16" t="n" s="745">
-        <v>0.7175991454627684</v>
+        <v>0.7405678205977719</v>
       </c>
       <c r="D16" t="n" s="746">
-        <v>0.8302312856473155</v>
+        <v>0.8733723843110595</v>
       </c>
       <c r="E16" t="n" s="747">
-        <v>0.22017600646600652</v>
+        <v>0.2629833731314615</v>
       </c>
       <c r="F16" t="n" s="748">
-        <v>2.5410657720519074</v>
+        <v>2.8545719436353476</v>
       </c>
       <c r="G16" t="n" s="749">
-        <v>0.047265437410250306</v>
+        <v>0.04567939766179079</v>
       </c>
       <c r="H16" t="n" s="750">
-        <v>0.04703130548202228</v>
+        <v>0.09611530885776166</v>
       </c>
       <c r="I16" t="n" s="751">
-        <v>0.137083411655255</v>
+        <v>0.14408652348750123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="739">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="744">
-        <v>0.7280097191732189</v>
+        <v>0.6933302374180066</v>
       </c>
       <c r="C17" t="n" s="745">
-        <v>0.7390068151108566</v>
+        <v>0.7531514512102202</v>
       </c>
       <c r="D17" t="n" s="746">
-        <v>0.8136512930962166</v>
+        <v>0.8767373339251637</v>
       </c>
       <c r="E17" t="n" s="747">
-        <v>0.23931990383557494</v>
+        <v>0.2760879986225178</v>
       </c>
       <c r="F17" t="n" s="748">
-        <v>2.831517671332105</v>
+        <v>3.051066959488656</v>
       </c>
       <c r="G17" t="n" s="749">
-        <v>0.042386123323387065</v>
+        <v>0.04701194678976448</v>
       </c>
       <c r="H17" t="n" s="750">
-        <v>0.03667925867323831</v>
+        <v>0.08865010229671856</v>
       </c>
       <c r="I17" t="n" s="751">
-        <v>0.17958743362784035</v>
+        <v>0.1669175464747848</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="739">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="744">
-        <v>0.7298432389573491</v>
+        <v>0.6076830673432865</v>
       </c>
       <c r="C18" t="n" s="745">
-        <v>0.7388435297610177</v>
+        <v>0.7007761109352322</v>
       </c>
       <c r="D18" t="n" s="746">
-        <v>0.8126412776562695</v>
+        <v>0.8073139504156859</v>
       </c>
       <c r="E18" t="n" s="747">
-        <v>0.2391658520261769</v>
+        <v>0.22645367197846897</v>
       </c>
       <c r="F18" t="n" s="748">
-        <v>2.8291220550075127</v>
+        <v>2.341979155225628</v>
       </c>
       <c r="G18" t="n" s="749">
-        <v>0.04192639516438621</v>
+        <v>0.06082493911939786</v>
       </c>
       <c r="H18" t="n" s="750">
-        <v>0.03647710678672852</v>
+        <v>0.08397408622839375</v>
       </c>
       <c r="I18" t="n" s="751">
-        <v>0.17762966870362418</v>
+        <v>0.15074745965041875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="739">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="744">
-        <v>0.7458594529135204</v>
+        <v>0.6103171092830757</v>
       </c>
       <c r="C19" t="n" s="745">
-        <v>0.7478883518149163</v>
+        <v>0.7008709175480243</v>
       </c>
       <c r="D19" t="n" s="746">
-        <v>0.8826230627336028</v>
+        <v>0.8091305945771632</v>
       </c>
       <c r="E19" t="n" s="747">
-        <v>0.24790017605338527</v>
+        <v>0.22653288962240709</v>
       </c>
       <c r="F19" t="n" s="748">
-        <v>2.96649661845797</v>
+        <v>2.343038369265038</v>
       </c>
       <c r="G19" t="n" s="749">
-        <v>0.039880533966779895</v>
+        <v>0.060238855525334964</v>
       </c>
       <c r="H19" t="n" s="750">
-        <v>0.0560001183507282</v>
+        <v>0.08538190879138158</v>
       </c>
       <c r="I19" t="n" s="751">
-        <v>0.1627439136184996</v>
+        <v>0.12433419002517807</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.7328535713045592</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.7466261171904209</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.8791085524951529</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.24665620141591837</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>2.946736691687917</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.042309574137265334</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.05305325666222402</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.1686847191677313</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7685,359 +7658,380 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="755">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="769">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="769">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="769">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="769">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="769">
-        <v>10</v>
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>93.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.5090796656132641</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.6769699232247895</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.7258878656497896</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.47595206502989224</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.053763440860215055</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.22677279367959727</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="765">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="770">
         <v>93.0</v>
       </c>
       <c r="C25" t="n" s="771">
-        <v>0.546989601576799</v>
+        <v>0.5230454774092786</v>
       </c>
       <c r="D25" t="n" s="772">
-        <v>0.5773129551418646</v>
+        <v>0.6877695010398096</v>
       </c>
       <c r="E25" t="n" s="773">
-        <v>0.5274132270615074</v>
+        <v>0.7353289944830863</v>
       </c>
       <c r="F25" t="n" s="774">
-        <v>0.4359847715900119</v>
+        <v>0.3920636378274221</v>
       </c>
       <c r="G25" t="n" s="775">
-        <v>3.6559139784946235</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="H25" t="n" s="776">
-        <v>0.8907083607018724</v>
+        <v>0.8374140386271068</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="765">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="770">
         <v>93.0</v>
       </c>
       <c r="C26" t="n" s="771">
-        <v>0.6166471516598747</v>
+        <v>0.5277406373847949</v>
       </c>
       <c r="D26" t="n" s="772">
-        <v>0.6420511060999042</v>
+        <v>0.6907575600358845</v>
       </c>
       <c r="E26" t="n" s="773">
-        <v>0.5951532048742928</v>
+        <v>0.7414744291246449</v>
       </c>
       <c r="F26" t="n" s="774">
-        <v>0.5067097602190445</v>
+        <v>0.374397050820842</v>
       </c>
       <c r="G26" t="n" s="775">
-        <v>4.075268817204301</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="H26" t="n" s="776">
-        <v>0.969497394886122</v>
+        <v>0.9682911017788045</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="765">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="770">
         <v>93.0</v>
       </c>
       <c r="C27" t="n" s="771">
-        <v>0.6187379301036194</v>
+        <v>0.46017340878822144</v>
       </c>
       <c r="D27" t="n" s="772">
-        <v>0.6288390222076945</v>
+        <v>0.446054143816902</v>
       </c>
       <c r="E27" t="n" s="773">
-        <v>0.6107609629859017</v>
+        <v>0.34646163551154874</v>
       </c>
       <c r="F27" t="n" s="774">
-        <v>0.49099033272800785</v>
+        <v>0.3106858116169694</v>
       </c>
       <c r="G27" t="n" s="775">
         <v>3.6559139784946235</v>
       </c>
       <c r="H27" t="n" s="776">
-        <v>1.1082165819549306</v>
+        <v>0.8907083607018724</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="765">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="770">
         <v>93.0</v>
       </c>
       <c r="C28" t="n" s="771">
-        <v>0.6096934527959988</v>
+        <v>0.5394150629770974</v>
       </c>
       <c r="D28" t="n" s="772">
-        <v>0.6119246497594961</v>
+        <v>0.5302454911677539</v>
       </c>
       <c r="E28" t="n" s="773">
-        <v>0.5906553791529533</v>
+        <v>0.44152751598679457</v>
       </c>
       <c r="F28" t="n" s="774">
-        <v>0.4637370334374079</v>
+        <v>0.38792675202643084</v>
       </c>
       <c r="G28" t="n" s="775">
         <v>4.075268817204301</v>
       </c>
       <c r="H28" t="n" s="776">
-        <v>1.2268425286055766</v>
+        <v>0.969497394886122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="765">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="770">
         <v>93.0</v>
       </c>
       <c r="C29" t="n" s="771">
-        <v>0.6594194517055657</v>
+        <v>0.5209761183100268</v>
       </c>
       <c r="D29" t="n" s="772">
-        <v>0.6269403848487696</v>
+        <v>0.4409996662251268</v>
       </c>
       <c r="E29" t="n" s="773">
-        <v>0.617463591823381</v>
+        <v>0.28628209253244385</v>
       </c>
       <c r="F29" t="n" s="774">
-        <v>0.5129633176989343</v>
+        <v>0.2614899401507247</v>
       </c>
       <c r="G29" t="n" s="775">
-        <v>2.139784946236559</v>
+        <v>1.3870967741935485</v>
       </c>
       <c r="H29" t="n" s="776">
-        <v>1.3236264237959747</v>
+        <v>1.5182388113729164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="765">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="770">
         <v>93.0</v>
       </c>
       <c r="C30" t="n" s="771">
-        <v>0.6413137906920785</v>
+        <v>0.45423196461933996</v>
       </c>
       <c r="D30" t="n" s="772">
-        <v>0.608927504724427</v>
+        <v>0.3693763434969275</v>
       </c>
       <c r="E30" t="n" s="773">
-        <v>0.5935935035525602</v>
+        <v>0.21081795165277029</v>
       </c>
       <c r="F30" t="n" s="774">
-        <v>0.4994402953383615</v>
+        <v>0.22995873259832336</v>
       </c>
       <c r="G30" t="n" s="775">
-        <v>1.924731182795699</v>
+        <v>2.6129032258064515</v>
       </c>
       <c r="H30" t="n" s="776">
-        <v>1.2531400485578907</v>
+        <v>1.2771593654985995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="765">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="770">
         <v>93.0</v>
       </c>
       <c r="C31" t="n" s="771">
-        <v>0.42451605794524794</v>
+        <v>0.7310660331036365</v>
       </c>
       <c r="D31" t="n" s="772">
-        <v>0.4843166765769083</v>
+        <v>0.6406527258742619</v>
       </c>
       <c r="E31" t="n" s="773">
-        <v>0.5115179812209071</v>
+        <v>0.627863744146396</v>
       </c>
       <c r="F31" t="n" s="774">
-        <v>0.306500000108924</v>
+        <v>0.5741546477925197</v>
       </c>
       <c r="G31" t="n" s="775">
-        <v>0.1935483870967742</v>
+        <v>2.139784946236559</v>
       </c>
       <c r="H31" t="n" s="776">
-        <v>0.8374140386271068</v>
+        <v>1.3236264237959747</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="765">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="770">
         <v>93.0</v>
       </c>
       <c r="C32" t="n" s="771">
-        <v>0.4280296775189955</v>
+        <v>0.7214968313629186</v>
       </c>
       <c r="D32" t="n" s="772">
-        <v>0.4853194255561846</v>
+        <v>0.6402197618890325</v>
       </c>
       <c r="E32" t="n" s="773">
-        <v>0.5127176743441922</v>
+        <v>0.6249282710505497</v>
       </c>
       <c r="F32" t="n" s="774">
-        <v>0.290401776146881</v>
+        <v>0.5716030804129889</v>
       </c>
       <c r="G32" t="n" s="775">
-        <v>0.22580645161290322</v>
+        <v>1.924731182795699</v>
       </c>
       <c r="H32" t="n" s="776">
-        <v>0.9682911017788045</v>
+        <v>1.2531400485578907</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>93.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.4785315761569761</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.42846625039921094</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.2847325716102875</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.2610465352350689</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>1.3870967741935485</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.5182388113729164</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>93.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.4744353002016869</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.4365634892621643</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.3092034269749246</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.2948558995499449</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>2.6129032258064515</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.2771593654985995</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="780">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.053763440860215055</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="794">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="794">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="794">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="794">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="794">
-        <v>43</v>
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="790">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="795">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="C39" t="n" s="796">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="796">
-        <v>0.043010752688172046</v>
-      </c>
       <c r="D39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="798">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="F39" t="n" s="799">
         <v>0.021505376344086023</v>
       </c>
-      <c r="E39" t="n" s="798">
-        <v>0.3010752688172043</v>
-      </c>
-      <c r="F39" t="n" s="799">
-        <v>0.5053763440860215</v>
-      </c>
       <c r="G39" t="n" s="800">
-        <v>0.12903225806451613</v>
+        <v>0.021505376344086023</v>
       </c>
       <c r="H39" t="n" s="801">
         <v>0.0</v>
@@ -8045,25 +8039,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="790">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="795">
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="796">
-        <v>0.010752688172043012</v>
+        <v>0.043010752688172046</v>
       </c>
       <c r="D40" t="n" s="797">
-        <v>0.03225806451612903</v>
+        <v>0.021505376344086023</v>
       </c>
       <c r="E40" t="n" s="798">
-        <v>0.26881720430107525</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="F40" t="n" s="799">
-        <v>0.24731182795698925</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="G40" t="n" s="800">
-        <v>0.44086021505376344</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="H40" t="n" s="801">
         <v>0.0</v>
@@ -8071,25 +8065,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="790">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="796">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="D41" t="n" s="797">
         <v>0.03225806451612903</v>
       </c>
-      <c r="C41" t="n" s="796">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D41" t="n" s="797">
-        <v>0.021505376344086023</v>
-      </c>
       <c r="E41" t="n" s="798">
-        <v>0.25806451612903225</v>
+        <v>0.26881720430107525</v>
       </c>
       <c r="F41" t="n" s="799">
-        <v>0.4731182795698925</v>
+        <v>0.24731182795698925</v>
       </c>
       <c r="G41" t="n" s="800">
-        <v>0.1827956989247312</v>
+        <v>0.44086021505376344</v>
       </c>
       <c r="H41" t="n" s="801">
         <v>0.0</v>
@@ -8097,25 +8091,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="790">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="795">
-        <v>0.03225806451612903</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C42" t="n" s="796">
-        <v>0.010752688172043012</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="D42" t="n" s="797">
-        <v>0.010752688172043012</v>
+        <v>0.053763440860215055</v>
       </c>
       <c r="E42" t="n" s="798">
-        <v>0.2903225806451613</v>
+        <v>0.27956989247311825</v>
       </c>
       <c r="F42" t="n" s="799">
-        <v>0.10752688172043011</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="G42" t="n" s="800">
-        <v>0.5483870967741935</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="801">
         <v>0.0</v>
@@ -8123,22 +8117,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="790">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="795">
-        <v>0.17204301075268819</v>
+        <v>0.15053763440860216</v>
       </c>
       <c r="C43" t="n" s="796">
-        <v>0.10752688172043011</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D43" t="n" s="797">
-        <v>0.3118279569892473</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="E43" t="n" s="798">
-        <v>0.22580645161290322</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="F43" t="n" s="799">
-        <v>0.1827956989247312</v>
+        <v>0.20430107526881722</v>
       </c>
       <c r="G43" t="n" s="800">
         <v>0.0</v>
@@ -8149,22 +8143,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="790">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="795">
-        <v>0.1935483870967742</v>
+        <v>0.17204301075268819</v>
       </c>
       <c r="C44" t="n" s="796">
-        <v>0.0967741935483871</v>
+        <v>0.10752688172043011</v>
       </c>
       <c r="D44" t="n" s="797">
-        <v>0.44086021505376344</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="E44" t="n" s="798">
-        <v>0.12903225806451613</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="F44" t="n" s="799">
-        <v>0.13978494623655913</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="G44" t="n" s="800">
         <v>0.0</v>
@@ -8175,105 +8169,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="790">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="795">
-        <v>0.946236559139785</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="C45" t="n" s="796">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="D45" t="n" s="797">
+        <v>0.44086021505376344</v>
+      </c>
+      <c r="E45" t="n" s="798">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="F45" t="n" s="799">
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="G45" t="n" s="800">
         <v>0.0</v>
       </c>
-      <c r="D45" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="798">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="F45" t="n" s="799">
-        <v>0.010752688172043012</v>
-      </c>
-      <c r="G45" t="n" s="800">
-        <v>0.010752688172043012</v>
-      </c>
       <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.946236559139785</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.010752688172043012</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.021505376344086023</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.021505376344086023</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.053763440860215055</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.27956989247311825</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.08602150537634409</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.15053763440860216</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.07526881720430108</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.5376344086021505</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.20430107526881722</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
